--- a/sources/Python リサイクル市 会計用.xlsx
+++ b/sources/Python リサイクル市 会計用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ドキュメント\GitHub\ykiu\gomipy\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB4C4B6-EE94-4F9E-96DD-5470997E733D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A657C66-B5EF-4937-B27C-8B3433C19C78}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="587">
   <si>
     <t>客番号管理用シート</t>
   </si>
@@ -1782,6 +1782,13 @@
   </si>
   <si>
     <t>合計</t>
+  </si>
+  <si>
+    <t>(値引き後価格)</t>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2468,31 +2475,31 @@
       <calculatedColumnFormula>raw!D2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="支払い状況(空白)" dataDxfId="10">
+      <calculatedColumnFormula>raw!E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="高さ" dataDxfId="9">
       <calculatedColumnFormula>raw!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="高さ" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="幅" dataDxfId="8">
       <calculatedColumnFormula>raw!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="幅" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="奥行" dataDxfId="7">
       <calculatedColumnFormula>raw!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="奥行" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="メーカー" dataDxfId="6">
       <calculatedColumnFormula>raw!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="メーカー" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="型番" dataDxfId="5">
       <calculatedColumnFormula>raw!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="型番" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="製造年" dataDxfId="4">
       <calculatedColumnFormula>raw!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="製造年" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="備考" dataDxfId="3">
       <calculatedColumnFormula>raw!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="備考" dataDxfId="3">
-      <calculatedColumnFormula>raw!M2</calculatedColumnFormula>
-    </tableColumn>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WEB掲載不可" dataDxfId="2">
-      <calculatedColumnFormula>raw!E2</calculatedColumnFormula>
+      <calculatedColumnFormula>raw!#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="グループ" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="グループ内番号" dataDxfId="0"/>
@@ -2860,11 +2867,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O289"/>
+  <dimension ref="A1:N289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A291" sqref="A291"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2873,18 +2880,17 @@
     <col min="2" max="2" width="20.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9.375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="13.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="30.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="4" customWidth="1"/>
-    <col min="14" max="15" width="13.875" style="9" customWidth="1"/>
-    <col min="16" max="26" width="13.875" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="13.875" style="4"/>
+    <col min="5" max="7" width="9.375" style="4" customWidth="1"/>
+    <col min="8" max="9" width="13.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="30.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="13.875" style="9" customWidth="1"/>
+    <col min="15" max="25" width="13.875" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="13.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2895,37 +2901,34 @@
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>586</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>22072</v>
       </c>
@@ -2935,18 +2938,17 @@
       <c r="C2" s="4">
         <v>200</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>28</v>
+      </c>
       <c r="F2" s="4">
-        <v>28</v>
+        <v>37.6</v>
       </c>
       <c r="G2" s="4">
-        <v>37.6</v>
-      </c>
-      <c r="H2" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>22024</v>
       </c>
@@ -2956,12 +2958,11 @@
       <c r="C3" s="4">
         <v>300</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>18022</v>
       </c>
@@ -2971,18 +2972,17 @@
       <c r="C4" s="4">
         <v>300</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>46</v>
+      </c>
       <c r="F4" s="4">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="G4" s="4">
-        <v>119</v>
-      </c>
-      <c r="H4" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>22065</v>
       </c>
@@ -2992,9 +2992,8 @@
       <c r="C5" s="4">
         <v>50</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>22038</v>
       </c>
@@ -3004,9 +3003,8 @@
       <c r="C6" s="4">
         <v>200</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>18021</v>
       </c>
@@ -3016,18 +3014,17 @@
       <c r="C7" s="4">
         <v>200</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>34</v>
+      </c>
       <c r="F7" s="4">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4">
         <v>90</v>
       </c>
-      <c r="H7" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>12010</v>
       </c>
@@ -3037,15 +3034,14 @@
       <c r="C8" s="4">
         <v>400</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>150</v>
+      </c>
       <c r="F8" s="4">
-        <v>150</v>
-      </c>
-      <c r="G8" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>21007</v>
       </c>
@@ -3055,21 +3051,20 @@
       <c r="C9" s="4">
         <v>500</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="4">
+      <c r="J9" s="4">
         <v>2008</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>17015</v>
       </c>
@@ -3079,18 +3074,17 @@
       <c r="C10" s="4">
         <v>300</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>116</v>
+      </c>
       <c r="F10" s="4">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="G10" s="4">
-        <v>56</v>
-      </c>
-      <c r="H10" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>21051</v>
       </c>
@@ -3100,21 +3094,20 @@
       <c r="C11" s="4">
         <v>1000</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="I11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="4">
+      <c r="J11" s="4">
         <v>2014</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>22062</v>
       </c>
@@ -3124,18 +3117,17 @@
       <c r="C12" s="4">
         <v>200</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>180</v>
+      </c>
       <c r="G12" s="4">
-        <v>180</v>
-      </c>
-      <c r="H12" s="4">
         <v>130</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>21037</v>
       </c>
@@ -3145,15 +3137,14 @@
       <c r="C13" s="4">
         <v>900</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="I13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>22041</v>
       </c>
@@ -3163,9 +3154,8 @@
       <c r="C14" s="4">
         <v>100</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>17025</v>
       </c>
@@ -3175,18 +3165,17 @@
       <c r="C15" s="4">
         <v>600</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="F15" s="4">
+        <v>80</v>
+      </c>
       <c r="G15" s="4">
-        <v>80</v>
-      </c>
-      <c r="H15" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>21041</v>
       </c>
@@ -3196,27 +3185,26 @@
       <c r="C16" s="4">
         <v>2000</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4">
+        <v>15.5</v>
+      </c>
       <c r="F16" s="4">
-        <v>15.5</v>
+        <v>22.9</v>
       </c>
       <c r="G16" s="4">
-        <v>22.9</v>
-      </c>
-      <c r="H16" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="4">
+      <c r="J16" s="4">
         <v>2012</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>21047</v>
       </c>
@@ -3226,12 +3214,11 @@
       <c r="C17" s="4">
         <v>50</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="L17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>18036</v>
       </c>
@@ -3241,9 +3228,8 @@
       <c r="C18" s="4">
         <v>200</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>17014</v>
       </c>
@@ -3253,18 +3239,17 @@
       <c r="C19" s="4">
         <v>100</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4">
+        <v>76</v>
+      </c>
       <c r="F19" s="4">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="G19" s="4">
-        <v>54</v>
-      </c>
-      <c r="H19" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>22075</v>
       </c>
@@ -3274,12 +3259,11 @@
       <c r="C20" s="4">
         <v>50</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="L20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>21035</v>
       </c>
@@ -3289,15 +3273,14 @@
       <c r="C21" s="4">
         <v>200</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="I21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>21013</v>
       </c>
@@ -3307,21 +3290,20 @@
       <c r="C22" s="4">
         <v>1000</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="I22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="4">
+      <c r="J22" s="4">
         <v>2010</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>18006</v>
       </c>
@@ -3331,18 +3313,17 @@
       <c r="C23" s="4">
         <v>200</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4">
+        <v>44</v>
+      </c>
       <c r="F23" s="4">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G23" s="4">
-        <v>89</v>
-      </c>
-      <c r="H23" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>16003</v>
       </c>
@@ -3352,27 +3333,26 @@
       <c r="C24" s="4">
         <v>3000</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4">
+        <v>94.8</v>
+      </c>
       <c r="F24" s="4">
-        <v>94.8</v>
+        <v>56.3</v>
       </c>
       <c r="G24" s="4">
-        <v>56.3</v>
-      </c>
-      <c r="H24" s="4">
         <v>55</v>
       </c>
+      <c r="H24" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="I24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="4">
+      <c r="J24" s="4">
         <v>2008</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>21029</v>
       </c>
@@ -3382,27 +3362,26 @@
       <c r="C25" s="4">
         <v>1500</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4">
+        <v>29</v>
+      </c>
       <c r="F25" s="4">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G25" s="4">
-        <v>45</v>
-      </c>
-      <c r="H25" s="4">
         <v>36.5</v>
       </c>
+      <c r="H25" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="4">
+      <c r="J25" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>12009</v>
       </c>
@@ -3412,18 +3391,17 @@
       <c r="C26" s="4">
         <v>3000</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4">
+        <v>43</v>
+      </c>
       <c r="F26" s="4">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="G26" s="4">
-        <v>97</v>
-      </c>
-      <c r="H26" s="4">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>18023</v>
       </c>
@@ -3433,18 +3411,17 @@
       <c r="C27" s="4">
         <v>500</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4">
+        <v>62</v>
+      </c>
       <c r="F27" s="4">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="G27" s="4">
-        <v>150</v>
-      </c>
-      <c r="H27" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>17002</v>
       </c>
@@ -3454,18 +3431,17 @@
       <c r="C28" s="4">
         <v>200</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4">
+        <v>57</v>
+      </c>
       <c r="F28" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G28" s="4">
-        <v>59</v>
-      </c>
-      <c r="H28" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>22082</v>
       </c>
@@ -3475,18 +3451,17 @@
       <c r="C29" s="4">
         <v>300</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4">
+        <v>104.5</v>
+      </c>
       <c r="F29" s="4">
-        <v>104.5</v>
+        <v>31</v>
       </c>
       <c r="G29" s="4">
-        <v>31</v>
-      </c>
-      <c r="H29" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>17033</v>
       </c>
@@ -3496,18 +3471,17 @@
       <c r="C30" s="4">
         <v>200</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4">
+        <v>83</v>
+      </c>
       <c r="F30" s="4">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G30" s="4">
-        <v>80</v>
-      </c>
-      <c r="H30" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>21048</v>
       </c>
@@ -3517,15 +3491,14 @@
       <c r="C31" s="4">
         <v>200</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="I31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>22015</v>
       </c>
@@ -3535,9 +3508,8 @@
       <c r="C32" s="4">
         <v>900</v>
       </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>22091</v>
       </c>
@@ -3547,18 +3519,17 @@
       <c r="C33" s="4">
         <v>200</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4">
+        <v>23</v>
+      </c>
       <c r="F33" s="4">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G33" s="4">
-        <v>39</v>
-      </c>
-      <c r="H33" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>22005</v>
       </c>
@@ -3568,9 +3539,8 @@
       <c r="C34" s="4">
         <v>400</v>
       </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>22040</v>
       </c>
@@ -3580,9 +3550,8 @@
       <c r="C35" s="4">
         <v>200</v>
       </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>22064</v>
       </c>
@@ -3592,15 +3561,14 @@
       <c r="C36" s="4">
         <v>50</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="F36" s="4">
+        <v>77</v>
+      </c>
       <c r="G36" s="4">
-        <v>77</v>
-      </c>
-      <c r="H36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>21008</v>
       </c>
@@ -3610,15 +3578,14 @@
       <c r="C37" s="4">
         <v>200</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="I37" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J37" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>17007</v>
       </c>
@@ -3628,18 +3595,17 @@
       <c r="C38" s="4">
         <v>300</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4">
+        <v>177</v>
+      </c>
       <c r="F38" s="4">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="G38" s="4">
-        <v>63</v>
-      </c>
-      <c r="H38" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>22021</v>
       </c>
@@ -3649,12 +3615,11 @@
       <c r="C39" s="4">
         <v>200</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="L39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>18029</v>
       </c>
@@ -3664,18 +3629,17 @@
       <c r="C40" s="4">
         <v>200</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4">
+        <v>80</v>
+      </c>
       <c r="F40" s="4">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G40" s="4">
-        <v>45</v>
-      </c>
-      <c r="H40" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>12014</v>
       </c>
@@ -3685,9 +3649,8 @@
       <c r="C41" s="4">
         <v>100</v>
       </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>17032</v>
       </c>
@@ -3697,18 +3660,17 @@
       <c r="C42" s="4">
         <v>200</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4">
+        <v>83</v>
+      </c>
       <c r="F42" s="4">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G42" s="4">
-        <v>80</v>
-      </c>
-      <c r="H42" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>21033</v>
       </c>
@@ -3718,30 +3680,29 @@
       <c r="C43" s="4">
         <v>1000</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4">
+        <v>20.5</v>
+      </c>
       <c r="F43" s="4">
-        <v>20.5</v>
+        <v>23.5</v>
       </c>
       <c r="G43" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="H43" s="4">
         <v>30.5</v>
       </c>
+      <c r="H43" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J43" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K43" s="4">
+      <c r="J43" s="4">
         <v>2010</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>16015</v>
       </c>
@@ -3751,27 +3712,26 @@
       <c r="C44" s="4">
         <v>3000</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4">
+        <v>111.9</v>
+      </c>
       <c r="F44" s="4">
-        <v>111.9</v>
+        <v>48</v>
       </c>
       <c r="G44" s="4">
-        <v>48</v>
-      </c>
-      <c r="H44" s="4">
         <v>58.4</v>
       </c>
+      <c r="H44" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="I44" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K44" s="4">
+      <c r="J44" s="4">
         <v>2009</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>21023</v>
       </c>
@@ -3781,15 +3741,14 @@
       <c r="C45" s="4">
         <v>50</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="I45" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J45" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>22034</v>
       </c>
@@ -3799,21 +3758,20 @@
       <c r="C46" s="4">
         <v>100</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4">
+        <v>45</v>
+      </c>
       <c r="F46" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G46" s="4">
-        <v>43</v>
-      </c>
-      <c r="H46" s="4">
         <v>64</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>18018</v>
       </c>
@@ -3823,18 +3781,17 @@
       <c r="C47" s="4">
         <v>400</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="4">
+      <c r="F47" s="4">
         <v>75</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>22033</v>
       </c>
@@ -3844,21 +3801,20 @@
       <c r="C48" s="4">
         <v>300</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4">
+        <v>64</v>
+      </c>
       <c r="F48" s="4">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G48" s="4">
-        <v>78</v>
-      </c>
-      <c r="H48" s="4">
         <v>42</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>22036</v>
       </c>
@@ -3868,21 +3824,20 @@
       <c r="C49" s="4">
         <v>200</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4">
+        <v>30</v>
+      </c>
       <c r="F49" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G49" s="4">
-        <v>40</v>
-      </c>
-      <c r="H49" s="4">
         <v>65</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>22086</v>
       </c>
@@ -3892,18 +3847,17 @@
       <c r="C50" s="4">
         <v>200</v>
       </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4">
+        <v>23</v>
+      </c>
       <c r="F50" s="4">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G50" s="4">
-        <v>39</v>
-      </c>
-      <c r="H50" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>16005</v>
       </c>
@@ -3913,30 +3867,29 @@
       <c r="C51" s="4">
         <v>300</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4">
+        <v>87</v>
+      </c>
       <c r="F51" s="4">
-        <v>87</v>
+        <v>48.5</v>
       </c>
       <c r="G51" s="4">
-        <v>48.5</v>
-      </c>
-      <c r="H51" s="4">
         <v>50</v>
       </c>
+      <c r="H51" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="I51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J51" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K51" s="4">
+      <c r="J51" s="4">
         <v>2008</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>21019</v>
       </c>
@@ -3946,21 +3899,20 @@
       <c r="C52" s="4">
         <v>400</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="I52" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J52" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K52" s="4">
+      <c r="J52" s="4">
         <v>2013</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>22028</v>
       </c>
@@ -3970,12 +3922,11 @@
       <c r="C53" s="4">
         <v>100</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="L53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>22035</v>
       </c>
@@ -3985,21 +3936,20 @@
       <c r="C54" s="4">
         <v>200</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4">
+        <v>30</v>
+      </c>
       <c r="F54" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="4">
-        <v>40</v>
-      </c>
-      <c r="H54" s="4">
         <v>65</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>22008</v>
       </c>
@@ -4009,9 +3959,8 @@
       <c r="C55" s="4">
         <v>100</v>
       </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>22004</v>
       </c>
@@ -4021,9 +3970,8 @@
       <c r="C56" s="4">
         <v>100</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>17001</v>
       </c>
@@ -4033,21 +3981,20 @@
       <c r="C57" s="4">
         <v>1000</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="4">
+        <v>64</v>
+      </c>
       <c r="F57" s="4">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="G57" s="4">
-        <v>94</v>
-      </c>
-      <c r="H57" s="4">
         <v>220</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>12001</v>
       </c>
@@ -4057,18 +4004,17 @@
       <c r="C58" s="4">
         <v>400</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="4">
+        <v>67.5</v>
+      </c>
       <c r="F58" s="4">
-        <v>67.5</v>
+        <v>91</v>
       </c>
       <c r="G58" s="4">
-        <v>91</v>
-      </c>
-      <c r="H58" s="4">
         <v>60.5</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>17011</v>
       </c>
@@ -4078,18 +4024,17 @@
       <c r="C59" s="4">
         <v>100</v>
       </c>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4">
+        <v>112</v>
+      </c>
       <c r="F59" s="4">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G59" s="4">
-        <v>72</v>
-      </c>
-      <c r="H59" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>22093</v>
       </c>
@@ -4099,18 +4044,17 @@
       <c r="C60" s="4">
         <v>200</v>
       </c>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4">
+        <v>23</v>
+      </c>
       <c r="F60" s="4">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G60" s="4">
-        <v>39</v>
-      </c>
-      <c r="H60" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>21009</v>
       </c>
@@ -4120,12 +4064,11 @@
       <c r="C61" s="4">
         <v>50</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="I61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>18001</v>
       </c>
@@ -4135,21 +4078,20 @@
       <c r="C62" s="4">
         <v>500</v>
       </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4">
+        <v>36</v>
+      </c>
       <c r="F62" s="4">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G62" s="4">
         <v>80</v>
       </c>
-      <c r="H62" s="4">
-        <v>80</v>
-      </c>
-      <c r="I62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>21024</v>
       </c>
@@ -4159,15 +4101,14 @@
       <c r="C63" s="4">
         <v>1000</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="H63" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="I63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J63" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>16008</v>
       </c>
@@ -4177,27 +4118,26 @@
       <c r="C64" s="4">
         <v>5000</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4">
+        <v>96.5</v>
+      </c>
       <c r="F64" s="4">
-        <v>96.5</v>
+        <v>53.9</v>
       </c>
       <c r="G64" s="4">
-        <v>53.9</v>
-      </c>
-      <c r="H64" s="4">
         <v>50.8</v>
       </c>
+      <c r="H64" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I64" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K64" s="4">
+      <c r="J64" s="4">
         <v>2013</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>17056</v>
       </c>
@@ -4207,18 +4147,17 @@
       <c r="C65" s="4">
         <v>200</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4">
+        <v>89</v>
+      </c>
       <c r="F65" s="4">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G65" s="4">
-        <v>44</v>
-      </c>
-      <c r="H65" s="4">
         <v>29.5</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>22001</v>
       </c>
@@ -4228,9 +4167,8 @@
       <c r="C66" s="4">
         <v>100</v>
       </c>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>22049</v>
       </c>
@@ -4240,9 +4178,8 @@
       <c r="C67" s="4">
         <v>100</v>
       </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>22074</v>
       </c>
@@ -4252,9 +4189,8 @@
       <c r="C68" s="4">
         <v>100</v>
       </c>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>22079</v>
       </c>
@@ -4264,18 +4200,17 @@
       <c r="C69" s="4">
         <v>200</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4">
+        <v>75</v>
+      </c>
       <c r="F69" s="4">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G69" s="4">
-        <v>44</v>
-      </c>
-      <c r="H69" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>18010</v>
       </c>
@@ -4285,15 +4220,14 @@
       <c r="C70" s="4">
         <v>400</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="E70" s="4">
+        <v>158</v>
+      </c>
       <c r="F70" s="4">
-        <v>158</v>
-      </c>
-      <c r="G70" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>22010</v>
       </c>
@@ -4303,9 +4237,8 @@
       <c r="C71" s="4">
         <v>500</v>
       </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>21054</v>
       </c>
@@ -4315,21 +4248,20 @@
       <c r="C72" s="4">
         <v>300</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="H72" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="I72" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J72" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K72" s="4">
+      <c r="J72" s="4">
         <v>2010</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="K72" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>16018</v>
       </c>
@@ -4339,30 +4271,29 @@
       <c r="C73" s="4">
         <v>1500</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" s="4">
+        <v>87</v>
+      </c>
       <c r="F73" s="4">
-        <v>87</v>
+        <v>48.5</v>
       </c>
       <c r="G73" s="4">
-        <v>48.5</v>
-      </c>
-      <c r="H73" s="4">
         <v>50</v>
       </c>
+      <c r="H73" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="I73" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J73" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K73" s="4">
+      <c r="J73" s="4">
         <v>2010</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="K73" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>22066</v>
       </c>
@@ -4372,9 +4303,8 @@
       <c r="C74" s="4">
         <v>50</v>
       </c>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>12013</v>
       </c>
@@ -4384,18 +4314,17 @@
       <c r="C75" s="4">
         <v>400</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4">
+        <v>163</v>
+      </c>
       <c r="F75" s="4">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="G75" s="4">
-        <v>65</v>
-      </c>
-      <c r="H75" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>12007</v>
       </c>
@@ -4405,18 +4334,17 @@
       <c r="C76" s="4">
         <v>1000</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4">
+        <v>65</v>
+      </c>
       <c r="F76" s="4">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="G76" s="4">
-        <v>99</v>
-      </c>
-      <c r="H76" s="4">
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>22037</v>
       </c>
@@ -4426,21 +4354,20 @@
       <c r="C77" s="4">
         <v>200</v>
       </c>
-      <c r="E77" s="4"/>
+      <c r="E77" s="4">
+        <v>18</v>
+      </c>
       <c r="F77" s="4">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G77" s="4">
-        <v>40</v>
-      </c>
-      <c r="H77" s="4">
         <v>65</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>21049</v>
       </c>
@@ -4450,18 +4377,17 @@
       <c r="C78" s="4">
         <v>300</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="H78" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="I78" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J78" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K78" s="4">
+      <c r="J78" s="4">
         <v>2004</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>17005</v>
       </c>
@@ -4471,18 +4397,17 @@
       <c r="C79" s="4">
         <v>100</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4">
+        <v>90</v>
+      </c>
       <c r="F79" s="4">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G79" s="4">
-        <v>32</v>
-      </c>
-      <c r="H79" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>16013</v>
       </c>
@@ -4492,27 +4417,26 @@
       <c r="C80" s="4">
         <v>700</v>
       </c>
-      <c r="E80" s="4"/>
+      <c r="E80" s="4">
+        <v>85.2</v>
+      </c>
       <c r="F80" s="4">
-        <v>85.2</v>
+        <v>47</v>
       </c>
       <c r="G80" s="4">
-        <v>47</v>
-      </c>
-      <c r="H80" s="4">
         <v>49.5</v>
       </c>
+      <c r="H80" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="I80" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J80" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K80" s="4">
+      <c r="J80" s="4">
         <v>2002</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>17048</v>
       </c>
@@ -4522,18 +4446,17 @@
       <c r="C81" s="4">
         <v>500</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="E81" s="4">
+        <v>125.5</v>
+      </c>
       <c r="F81" s="4">
-        <v>125.5</v>
+        <v>90</v>
       </c>
       <c r="G81" s="4">
-        <v>90</v>
-      </c>
-      <c r="H81" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>22051</v>
       </c>
@@ -4543,9 +4466,8 @@
       <c r="C82" s="4">
         <v>100</v>
       </c>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>18031</v>
       </c>
@@ -4555,18 +4477,17 @@
       <c r="C83" s="4">
         <v>300</v>
       </c>
-      <c r="E83" s="4"/>
+      <c r="E83" s="4">
+        <v>91</v>
+      </c>
       <c r="F83" s="4">
         <v>91</v>
       </c>
       <c r="G83" s="4">
-        <v>91</v>
-      </c>
-      <c r="H83" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>21040</v>
       </c>
@@ -4576,30 +4497,29 @@
       <c r="C84" s="4">
         <v>1500</v>
       </c>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4">
+        <v>25.8</v>
+      </c>
       <c r="F84" s="4">
-        <v>25.8</v>
+        <v>44</v>
       </c>
       <c r="G84" s="4">
-        <v>44</v>
-      </c>
-      <c r="H84" s="4">
         <v>33</v>
       </c>
+      <c r="H84" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="I84" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J84" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K84" s="4">
+      <c r="J84" s="4">
         <v>2014</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="K84" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>21056</v>
       </c>
@@ -4609,18 +4529,17 @@
       <c r="C85" s="4">
         <v>900</v>
       </c>
-      <c r="E85" s="4"/>
+      <c r="H85" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="I85" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J85" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="K85" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>18034</v>
       </c>
@@ -4630,9 +4549,8 @@
       <c r="C86" s="4">
         <v>100</v>
       </c>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>22052</v>
       </c>
@@ -4642,9 +4560,8 @@
       <c r="C87" s="4">
         <v>100</v>
       </c>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>18009</v>
       </c>
@@ -4654,18 +4571,17 @@
       <c r="C88" s="4">
         <v>100</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="4">
+        <v>32</v>
+      </c>
       <c r="F88" s="4">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G88" s="4">
-        <v>60</v>
-      </c>
-      <c r="H88" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
         <v>18014</v>
       </c>
@@ -4675,9 +4591,8 @@
       <c r="C89" s="4">
         <v>200</v>
       </c>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>21014</v>
       </c>
@@ -4687,21 +4602,20 @@
       <c r="C90" s="4">
         <v>1000</v>
       </c>
-      <c r="E90" s="4"/>
+      <c r="H90" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="I90" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J90" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="K90" s="4">
+      <c r="J90" s="4">
         <v>2010</v>
       </c>
-      <c r="L90" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
         <v>21021</v>
       </c>
@@ -4711,21 +4625,20 @@
       <c r="C91" s="4">
         <v>500</v>
       </c>
-      <c r="E91" s="4"/>
+      <c r="H91" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I91" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J91" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="K91" s="4">
+      <c r="J91" s="4">
         <v>2001</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="K91" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>21027</v>
       </c>
@@ -4735,21 +4648,20 @@
       <c r="C92" s="4">
         <v>1500</v>
       </c>
-      <c r="E92" s="4"/>
+      <c r="H92" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="I92" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J92" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K92" s="4">
+      <c r="J92" s="4">
         <v>2010</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="K92" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
         <v>12012</v>
       </c>
@@ -4759,18 +4671,17 @@
       <c r="C93" s="4">
         <v>1000</v>
       </c>
-      <c r="E93" s="4"/>
+      <c r="E93" s="4">
+        <v>38</v>
+      </c>
       <c r="F93" s="4">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="G93" s="4">
-        <v>120</v>
-      </c>
-      <c r="H93" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>18027</v>
       </c>
@@ -4780,18 +4691,17 @@
       <c r="C94" s="4">
         <v>200</v>
       </c>
-      <c r="E94" s="4"/>
+      <c r="E94" s="4">
+        <v>77</v>
+      </c>
       <c r="F94" s="4">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G94" s="4">
-        <v>42</v>
-      </c>
-      <c r="H94" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
         <v>22055</v>
       </c>
@@ -4801,9 +4711,8 @@
       <c r="C95" s="4">
         <v>100</v>
       </c>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
         <v>22039</v>
       </c>
@@ -4813,9 +4722,8 @@
       <c r="C96" s="4">
         <v>200</v>
       </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
         <v>22018</v>
       </c>
@@ -4825,9 +4733,8 @@
       <c r="C97" s="4">
         <v>200</v>
       </c>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>17039</v>
       </c>
@@ -4837,18 +4744,17 @@
       <c r="C98" s="4">
         <v>200</v>
       </c>
-      <c r="E98" s="4"/>
+      <c r="E98" s="4">
+        <v>87.5</v>
+      </c>
       <c r="F98" s="4">
-        <v>87.5</v>
+        <v>60</v>
       </c>
       <c r="G98" s="4">
-        <v>60</v>
-      </c>
-      <c r="H98" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>18017</v>
       </c>
@@ -4858,27 +4764,26 @@
       <c r="C99" s="4">
         <v>200</v>
       </c>
-      <c r="E99" s="4"/>
+      <c r="E99" s="4">
+        <v>85</v>
+      </c>
       <c r="F99" s="4">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G99" s="4">
-        <v>81</v>
-      </c>
-      <c r="H99" s="4">
         <v>42</v>
       </c>
+      <c r="H99" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="I99" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J99" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="L99" s="4" t="s">
+      <c r="K99" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>21060</v>
       </c>
@@ -4888,15 +4793,14 @@
       <c r="C100" s="4">
         <v>200</v>
       </c>
-      <c r="E100" s="4"/>
+      <c r="H100" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="I100" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J100" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
         <v>22059</v>
       </c>
@@ -4906,9 +4810,8 @@
       <c r="C101" s="4">
         <v>100</v>
       </c>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
         <v>17009</v>
       </c>
@@ -4918,18 +4821,17 @@
       <c r="C102" s="4">
         <v>200</v>
       </c>
-      <c r="E102" s="4"/>
+      <c r="E102" s="4">
+        <v>87</v>
+      </c>
       <c r="F102" s="4">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="G102" s="4">
-        <v>115</v>
-      </c>
-      <c r="H102" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
         <v>22020</v>
       </c>
@@ -4939,15 +4841,14 @@
       <c r="C103" s="4">
         <v>200</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="I103" s="4" t="s">
+      <c r="H103" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="L103" s="4" t="s">
+      <c r="K103" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
         <v>22002</v>
       </c>
@@ -4957,9 +4858,8 @@
       <c r="C104" s="4">
         <v>100</v>
       </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>22085</v>
       </c>
@@ -4969,18 +4869,17 @@
       <c r="C105" s="4">
         <v>200</v>
       </c>
-      <c r="E105" s="4"/>
+      <c r="E105" s="4">
+        <v>23</v>
+      </c>
       <c r="F105" s="4">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G105" s="4">
-        <v>39</v>
-      </c>
-      <c r="H105" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
         <v>21016</v>
       </c>
@@ -4990,18 +4889,17 @@
       <c r="C106" s="4">
         <v>1500</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="H106" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="I106" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J106" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="K106" s="4">
+      <c r="J106" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
         <v>22048</v>
       </c>
@@ -5011,9 +4909,8 @@
       <c r="C107" s="4">
         <v>100</v>
       </c>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
         <v>16014</v>
       </c>
@@ -5023,27 +4920,26 @@
       <c r="C108" s="4">
         <v>3000</v>
       </c>
-      <c r="E108" s="4"/>
+      <c r="E108" s="4">
+        <v>99.5</v>
+      </c>
       <c r="F108" s="4">
-        <v>99.5</v>
+        <v>48</v>
       </c>
       <c r="G108" s="4">
-        <v>48</v>
-      </c>
-      <c r="H108" s="4">
         <v>54</v>
       </c>
+      <c r="H108" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="I108" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J108" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="K108" s="4">
+      <c r="J108" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
         <v>16006</v>
       </c>
@@ -5053,30 +4949,29 @@
       <c r="C109" s="4">
         <v>3000</v>
       </c>
-      <c r="E109" s="4"/>
+      <c r="E109" s="4">
+        <v>90.4</v>
+      </c>
       <c r="F109" s="4">
-        <v>90.4</v>
+        <v>54.5</v>
       </c>
       <c r="G109" s="4">
-        <v>54.5</v>
-      </c>
-      <c r="H109" s="4">
         <v>51</v>
       </c>
+      <c r="H109" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="I109" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J109" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="K109" s="4">
+      <c r="J109" s="4">
         <v>2012</v>
       </c>
-      <c r="L109" s="4" t="s">
+      <c r="K109" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
         <v>18024</v>
       </c>
@@ -5086,18 +4981,17 @@
       <c r="C110" s="4">
         <v>300</v>
       </c>
-      <c r="E110" s="4"/>
+      <c r="E110" s="4">
+        <v>70</v>
+      </c>
       <c r="F110" s="4">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G110" s="4">
-        <v>90</v>
-      </c>
-      <c r="H110" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
         <v>16017</v>
       </c>
@@ -5107,30 +5001,29 @@
       <c r="C111" s="4">
         <v>1000</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4">
+        <v>90.2</v>
+      </c>
       <c r="F111" s="4">
-        <v>90.2</v>
+        <v>60</v>
       </c>
       <c r="G111" s="4">
-        <v>60</v>
-      </c>
-      <c r="H111" s="4">
         <v>59.5</v>
       </c>
+      <c r="H111" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="I111" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="J111" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="K111" s="4">
+      <c r="J111" s="4">
         <v>2000</v>
       </c>
-      <c r="L111" s="4" t="s">
+      <c r="K111" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
         <v>21045</v>
       </c>
@@ -5140,15 +5033,14 @@
       <c r="C112" s="4">
         <v>500</v>
       </c>
-      <c r="E112" s="4"/>
+      <c r="H112" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="I112" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J112" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="4">
         <v>22053</v>
       </c>
@@ -5158,9 +5050,8 @@
       <c r="C113" s="4">
         <v>100</v>
       </c>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="4">
         <v>17012</v>
       </c>
@@ -5170,18 +5061,17 @@
       <c r="C114" s="4">
         <v>2000</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="4">
+        <v>40</v>
+      </c>
       <c r="F114" s="4">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="G114" s="4">
-        <v>203</v>
-      </c>
-      <c r="H114" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="4">
         <v>16004</v>
       </c>
@@ -5191,27 +5081,26 @@
       <c r="C115" s="4">
         <v>5000</v>
       </c>
-      <c r="E115" s="4"/>
+      <c r="E115" s="4">
+        <v>89.8</v>
+      </c>
       <c r="F115" s="4">
-        <v>89.8</v>
+        <v>56.5</v>
       </c>
       <c r="G115" s="4">
-        <v>56.5</v>
-      </c>
-      <c r="H115" s="4">
         <v>53.5</v>
       </c>
+      <c r="H115" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I115" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J115" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="K115" s="4">
+      <c r="J115" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
         <v>18026</v>
       </c>
@@ -5221,18 +5110,17 @@
       <c r="C116" s="4">
         <v>200</v>
       </c>
-      <c r="E116" s="4"/>
+      <c r="E116" s="4">
+        <v>77</v>
+      </c>
       <c r="F116" s="4">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G116" s="4">
-        <v>42</v>
-      </c>
-      <c r="H116" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
         <v>16012</v>
       </c>
@@ -5242,27 +5130,26 @@
       <c r="C117" s="4">
         <v>4000</v>
       </c>
-      <c r="E117" s="4"/>
+      <c r="E117" s="4">
+        <v>108</v>
+      </c>
       <c r="F117" s="4">
-        <v>108</v>
+        <v>47.9</v>
       </c>
       <c r="G117" s="4">
-        <v>47.9</v>
-      </c>
-      <c r="H117" s="4">
         <v>53.2</v>
       </c>
+      <c r="H117" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="I117" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J117" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="K117" s="4">
+      <c r="J117" s="4">
         <v>2009</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
         <v>22019</v>
       </c>
@@ -5272,18 +5159,17 @@
       <c r="C118" s="4">
         <v>100</v>
       </c>
-      <c r="E118" s="4"/>
+      <c r="E118" s="4">
+        <v>40</v>
+      </c>
       <c r="F118" s="4">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G118" s="4">
-        <v>54</v>
-      </c>
-      <c r="H118" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="4">
         <v>17042</v>
       </c>
@@ -5293,18 +5179,17 @@
       <c r="C119" s="4">
         <v>400</v>
       </c>
-      <c r="E119" s="4"/>
+      <c r="E119" s="4">
+        <v>92.5</v>
+      </c>
       <c r="F119" s="4">
-        <v>92.5</v>
+        <v>96.5</v>
       </c>
       <c r="G119" s="4">
-        <v>96.5</v>
-      </c>
-      <c r="H119" s="4">
         <v>29.5</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="4">
         <v>22068</v>
       </c>
@@ -5314,9 +5199,8 @@
       <c r="C120" s="4">
         <v>100</v>
       </c>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="4">
         <v>22016</v>
       </c>
@@ -5326,9 +5210,8 @@
       <c r="C121" s="4">
         <v>100</v>
       </c>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="4">
         <v>17057</v>
       </c>
@@ -5338,18 +5221,17 @@
       <c r="C122" s="4">
         <v>200</v>
       </c>
-      <c r="E122" s="4"/>
+      <c r="E122" s="4">
+        <v>89</v>
+      </c>
       <c r="F122" s="4">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G122" s="4">
-        <v>44</v>
-      </c>
-      <c r="H122" s="4">
         <v>29.5</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="4">
         <v>21058</v>
       </c>
@@ -5359,15 +5241,14 @@
       <c r="C123" s="4">
         <v>200</v>
       </c>
-      <c r="E123" s="4"/>
+      <c r="H123" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="I123" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J123" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="4">
         <v>18013</v>
       </c>
@@ -5377,9 +5258,8 @@
       <c r="C124" s="4">
         <v>200</v>
       </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="4">
         <v>12011</v>
       </c>
@@ -5389,18 +5269,17 @@
       <c r="C125" s="4">
         <v>700</v>
       </c>
-      <c r="E125" s="4"/>
+      <c r="E125" s="4">
+        <v>76</v>
+      </c>
       <c r="F125" s="4">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="G125" s="4">
-        <v>133</v>
-      </c>
-      <c r="H125" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="4">
         <v>22007</v>
       </c>
@@ -5410,9 +5289,8 @@
       <c r="C126" s="4">
         <v>100</v>
       </c>
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="4">
         <v>17045</v>
       </c>
@@ -5422,18 +5300,17 @@
       <c r="C127" s="4">
         <v>200</v>
       </c>
-      <c r="E127" s="4"/>
+      <c r="E127" s="4">
+        <v>87.5</v>
+      </c>
       <c r="F127" s="4">
-        <v>87.5</v>
+        <v>47.5</v>
       </c>
       <c r="G127" s="4">
-        <v>47.5</v>
-      </c>
-      <c r="H127" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
         <v>22081</v>
       </c>
@@ -5443,18 +5320,17 @@
       <c r="C128" s="4">
         <v>300</v>
       </c>
-      <c r="E128" s="4"/>
+      <c r="E128" s="4">
+        <v>108</v>
+      </c>
       <c r="F128" s="4">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="G128" s="4">
-        <v>34</v>
-      </c>
-      <c r="H128" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
         <v>17036</v>
       </c>
@@ -5464,18 +5340,17 @@
       <c r="C129" s="4">
         <v>100</v>
       </c>
-      <c r="E129" s="4"/>
+      <c r="E129" s="4">
+        <v>88</v>
+      </c>
       <c r="F129" s="4">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G129" s="4">
-        <v>45</v>
-      </c>
-      <c r="H129" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" s="4">
         <v>17019</v>
       </c>
@@ -5485,9 +5360,8 @@
       <c r="C130" s="4">
         <v>500</v>
       </c>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" s="4">
         <v>22047</v>
       </c>
@@ -5497,9 +5371,8 @@
       <c r="C131" s="4">
         <v>100</v>
       </c>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" s="4">
         <v>22067</v>
       </c>
@@ -5509,9 +5382,8 @@
       <c r="C132" s="4">
         <v>100</v>
       </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" s="4">
         <v>22026</v>
       </c>
@@ -5521,12 +5393,11 @@
       <c r="C133" s="4">
         <v>100</v>
       </c>
-      <c r="E133" s="4"/>
-      <c r="L133" s="4" t="s">
+      <c r="K133" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" s="4">
         <v>22012</v>
       </c>
@@ -5536,12 +5407,11 @@
       <c r="C134" s="4">
         <v>50</v>
       </c>
-      <c r="E134" s="4"/>
-      <c r="L134" s="4" t="s">
+      <c r="K134" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" s="4">
         <v>22042</v>
       </c>
@@ -5551,9 +5421,8 @@
       <c r="C135" s="4">
         <v>100</v>
       </c>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" s="4">
         <v>22084</v>
       </c>
@@ -5563,18 +5432,17 @@
       <c r="C136" s="4">
         <v>300</v>
       </c>
-      <c r="E136" s="4"/>
+      <c r="E136" s="4">
+        <v>89</v>
+      </c>
       <c r="F136" s="4">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="G136" s="4">
-        <v>22</v>
-      </c>
-      <c r="H136" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" s="4">
         <v>21017</v>
       </c>
@@ -5584,18 +5452,17 @@
       <c r="C137" s="4">
         <v>400</v>
       </c>
-      <c r="E137" s="4"/>
+      <c r="H137" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="I137" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J137" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="K137" s="4">
+      <c r="J137" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" s="4">
         <v>22058</v>
       </c>
@@ -5605,18 +5472,17 @@
       <c r="C138" s="4">
         <v>100</v>
       </c>
-      <c r="E138" s="4"/>
+      <c r="E138" s="4">
+        <v>2</v>
+      </c>
       <c r="F138" s="4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G138" s="4">
         <v>40</v>
       </c>
-      <c r="H138" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" s="4">
         <v>17040</v>
       </c>
@@ -5626,18 +5492,17 @@
       <c r="C139" s="4">
         <v>400</v>
       </c>
-      <c r="E139" s="4"/>
+      <c r="E139" s="4">
+        <v>65</v>
+      </c>
       <c r="F139" s="4">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G139" s="4">
-        <v>72</v>
-      </c>
-      <c r="H139" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" s="4">
         <v>17004</v>
       </c>
@@ -5647,18 +5512,17 @@
       <c r="C140" s="4">
         <v>300</v>
       </c>
-      <c r="E140" s="4"/>
+      <c r="E140" s="4">
+        <v>87</v>
+      </c>
       <c r="F140" s="4">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G140" s="4">
-        <v>80</v>
-      </c>
-      <c r="H140" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" s="4">
         <v>17016</v>
       </c>
@@ -5668,18 +5532,17 @@
       <c r="C141" s="4">
         <v>300</v>
       </c>
-      <c r="E141" s="4"/>
+      <c r="E141" s="4">
+        <v>124</v>
+      </c>
       <c r="F141" s="4">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="G141" s="4">
-        <v>60</v>
-      </c>
-      <c r="H141" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" s="4">
         <v>21043</v>
       </c>
@@ -5689,21 +5552,20 @@
       <c r="C142" s="4">
         <v>300</v>
       </c>
-      <c r="E142" s="4"/>
+      <c r="H142" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="I142" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J142" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="K142" s="4">
+      <c r="J142" s="4">
         <v>2012</v>
       </c>
-      <c r="L142" s="4" t="s">
+      <c r="K142" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" s="4">
         <v>21061</v>
       </c>
@@ -5713,15 +5575,14 @@
       <c r="C143" s="4">
         <v>1500</v>
       </c>
-      <c r="E143" s="4"/>
+      <c r="H143" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="I143" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J143" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" s="4">
         <v>16021</v>
       </c>
@@ -5731,30 +5592,29 @@
       <c r="C144" s="4">
         <v>2500</v>
       </c>
-      <c r="E144" s="4"/>
+      <c r="E144" s="4">
+        <v>91</v>
+      </c>
       <c r="F144" s="4">
-        <v>91</v>
+        <v>55.5</v>
       </c>
       <c r="G144" s="4">
-        <v>55.5</v>
-      </c>
-      <c r="H144" s="4">
         <v>53.5</v>
       </c>
+      <c r="H144" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="I144" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="J144" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K144" s="4">
+      <c r="J144" s="4">
         <v>2008</v>
       </c>
-      <c r="L144" s="4" t="s">
+      <c r="K144" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="4">
         <v>18020</v>
       </c>
@@ -5764,9 +5624,8 @@
       <c r="C145" s="4">
         <v>500</v>
       </c>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="4">
         <v>21052</v>
       </c>
@@ -5776,18 +5635,17 @@
       <c r="C146" s="4">
         <v>1500</v>
       </c>
-      <c r="E146" s="4"/>
+      <c r="H146" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="I146" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J146" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="K146" s="4">
+      <c r="J146" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="4">
         <v>16011</v>
       </c>
@@ -5797,27 +5655,26 @@
       <c r="C147" s="4">
         <v>3000</v>
       </c>
-      <c r="E147" s="4"/>
+      <c r="E147" s="4">
+        <v>111.9</v>
+      </c>
       <c r="F147" s="4">
-        <v>111.9</v>
+        <v>48</v>
       </c>
       <c r="G147" s="4">
-        <v>48</v>
-      </c>
-      <c r="H147" s="4">
         <v>58.4</v>
       </c>
+      <c r="H147" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="I147" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J147" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K147" s="4">
+      <c r="J147" s="4">
         <v>2009</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="4">
         <v>22073</v>
       </c>
@@ -5827,9 +5684,8 @@
       <c r="C148" s="4">
         <v>100</v>
       </c>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="4">
         <v>18037</v>
       </c>
@@ -5839,9 +5695,8 @@
       <c r="C149" s="4">
         <v>300</v>
       </c>
-      <c r="E149" s="4"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="4">
         <v>22054</v>
       </c>
@@ -5851,9 +5706,8 @@
       <c r="C150" s="4">
         <v>200</v>
       </c>
-      <c r="E150" s="4"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="4">
         <v>12003</v>
       </c>
@@ -5863,18 +5717,17 @@
       <c r="C151" s="4">
         <v>700</v>
       </c>
-      <c r="E151" s="4"/>
+      <c r="E151" s="4">
+        <v>75</v>
+      </c>
       <c r="F151" s="4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G151" s="4">
-        <v>100</v>
-      </c>
-      <c r="H151" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="4">
         <v>21036</v>
       </c>
@@ -5884,18 +5737,17 @@
       <c r="C152" s="4">
         <v>1000</v>
       </c>
-      <c r="E152" s="4"/>
+      <c r="H152" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="I152" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="J152" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="K152" s="4">
+      <c r="J152" s="4">
         <v>2013</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="4">
         <v>17003</v>
       </c>
@@ -5905,18 +5757,17 @@
       <c r="C153" s="4">
         <v>100</v>
       </c>
-      <c r="E153" s="4"/>
+      <c r="E153" s="4">
+        <v>52</v>
+      </c>
       <c r="F153" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G153" s="4">
-        <v>36</v>
-      </c>
-      <c r="H153" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="4">
         <v>16019</v>
       </c>
@@ -5926,27 +5777,26 @@
       <c r="C154" s="4">
         <v>4000</v>
       </c>
-      <c r="E154" s="4"/>
+      <c r="E154" s="4">
+        <v>88.7</v>
+      </c>
       <c r="F154" s="4">
-        <v>88.7</v>
+        <v>56.2</v>
       </c>
       <c r="G154" s="4">
-        <v>56.2</v>
-      </c>
-      <c r="H154" s="4">
         <v>55.6</v>
       </c>
+      <c r="H154" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="I154" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J154" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="K154" s="4">
+      <c r="J154" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="4">
         <v>22087</v>
       </c>
@@ -5956,18 +5806,17 @@
       <c r="C155" s="4">
         <v>200</v>
       </c>
-      <c r="E155" s="4"/>
+      <c r="E155" s="4">
+        <v>23</v>
+      </c>
       <c r="F155" s="4">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G155" s="4">
-        <v>39</v>
-      </c>
-      <c r="H155" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="4">
         <v>12004</v>
       </c>
@@ -5977,18 +5826,17 @@
       <c r="C156" s="4">
         <v>300</v>
       </c>
-      <c r="E156" s="4"/>
+      <c r="E156" s="4">
+        <v>31</v>
+      </c>
       <c r="F156" s="4">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="G156" s="4">
-        <v>79</v>
-      </c>
-      <c r="H156" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="4">
         <v>17013</v>
       </c>
@@ -5998,18 +5846,17 @@
       <c r="C157" s="4">
         <v>200</v>
       </c>
-      <c r="E157" s="4"/>
+      <c r="E157" s="4">
+        <v>115</v>
+      </c>
       <c r="F157" s="4">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="G157" s="4">
-        <v>30</v>
-      </c>
-      <c r="H157" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="4">
         <v>22060</v>
       </c>
@@ -6019,12 +5866,11 @@
       <c r="C158" s="4">
         <v>100</v>
       </c>
-      <c r="E158" s="4"/>
-      <c r="L158" s="4" t="s">
+      <c r="K158" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="4">
         <v>22013</v>
       </c>
@@ -6034,9 +5880,8 @@
       <c r="C159" s="4">
         <v>100</v>
       </c>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="4">
         <v>17050</v>
       </c>
@@ -6046,18 +5891,17 @@
       <c r="C160" s="4">
         <v>200</v>
       </c>
-      <c r="E160" s="4"/>
+      <c r="E160" s="4">
+        <v>90.5</v>
+      </c>
       <c r="F160" s="4">
-        <v>90.5</v>
+        <v>59.5</v>
       </c>
       <c r="G160" s="4">
-        <v>59.5</v>
-      </c>
-      <c r="H160" s="4">
         <v>29.5</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="4">
         <v>17034</v>
       </c>
@@ -6067,18 +5911,17 @@
       <c r="C161" s="4">
         <v>300</v>
       </c>
-      <c r="E161" s="4"/>
+      <c r="E161" s="4">
+        <v>87</v>
+      </c>
       <c r="F161" s="4">
-        <v>87</v>
+        <v>41.5</v>
       </c>
       <c r="G161" s="4">
-        <v>41.5</v>
-      </c>
-      <c r="H161" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="4">
         <v>22083</v>
       </c>
@@ -6088,18 +5931,17 @@
       <c r="C162" s="4">
         <v>300</v>
       </c>
-      <c r="E162" s="4"/>
+      <c r="E162" s="4">
+        <v>85</v>
+      </c>
       <c r="F162" s="4">
-        <v>85</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G162" s="4">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="H162" s="4">
         <v>41.2</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="4">
         <v>18016</v>
       </c>
@@ -6109,9 +5951,8 @@
       <c r="C163" s="4">
         <v>600</v>
       </c>
-      <c r="E163" s="4"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" s="4">
         <v>21001</v>
       </c>
@@ -6121,15 +5962,14 @@
       <c r="C164" s="4">
         <v>3000</v>
       </c>
-      <c r="E164" s="4"/>
+      <c r="H164" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="I164" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J164" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" s="4">
         <v>21046</v>
       </c>
@@ -6139,18 +5979,17 @@
       <c r="C165" s="4">
         <v>400</v>
       </c>
-      <c r="E165" s="4"/>
+      <c r="H165" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="I165" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J165" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="K165" s="4">
+      <c r="J165" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" s="4">
         <v>21026</v>
       </c>
@@ -6160,21 +5999,20 @@
       <c r="C166" s="4">
         <v>300</v>
       </c>
-      <c r="E166" s="4"/>
+      <c r="H166" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="I166" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J166" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="K166" s="4">
+      <c r="J166" s="4">
         <v>2003</v>
       </c>
-      <c r="L166" s="4" t="s">
+      <c r="K166" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" s="4">
         <v>12002</v>
       </c>
@@ -6184,18 +6022,17 @@
       <c r="C167" s="4">
         <v>600</v>
       </c>
-      <c r="E167" s="4"/>
+      <c r="E167" s="4">
+        <v>64</v>
+      </c>
       <c r="F167" s="4">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="G167" s="4">
-        <v>142</v>
-      </c>
-      <c r="H167" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" s="4">
         <v>21020</v>
       </c>
@@ -6205,18 +6042,17 @@
       <c r="C168" s="4">
         <v>200</v>
       </c>
-      <c r="E168" s="4"/>
+      <c r="H168" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I168" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J168" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="K168" s="4">
+      <c r="J168" s="4">
         <v>2009</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" s="4">
         <v>21012</v>
       </c>
@@ -6226,15 +6062,14 @@
       <c r="C169" s="4">
         <v>1000</v>
       </c>
-      <c r="E169" s="4"/>
+      <c r="H169" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="I169" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J169" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" s="4">
         <v>21042</v>
       </c>
@@ -6244,30 +6079,29 @@
       <c r="C170" s="4">
         <v>2500</v>
       </c>
-      <c r="E170" s="4"/>
+      <c r="E170" s="4">
+        <v>30.5</v>
+      </c>
       <c r="F170" s="4">
-        <v>30.5</v>
+        <v>27.5</v>
       </c>
       <c r="G170" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="H170" s="4">
         <v>16.5</v>
       </c>
+      <c r="H170" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I170" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J170" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="K170" s="4">
+      <c r="J170" s="4">
         <v>2015</v>
       </c>
-      <c r="L170" s="4" t="s">
+      <c r="K170" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" s="4">
         <v>22046</v>
       </c>
@@ -6277,9 +6111,8 @@
       <c r="C171" s="4">
         <v>100</v>
       </c>
-      <c r="E171" s="4"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" s="4">
         <v>17047</v>
       </c>
@@ -6289,18 +6122,17 @@
       <c r="C172" s="4">
         <v>300</v>
       </c>
-      <c r="E172" s="4"/>
+      <c r="E172" s="4">
+        <v>92</v>
+      </c>
       <c r="F172" s="4">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="G172" s="4">
-        <v>59</v>
-      </c>
-      <c r="H172" s="4">
         <v>29.5</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" s="4">
         <v>18002</v>
       </c>
@@ -6310,18 +6142,17 @@
       <c r="C173" s="4">
         <v>100</v>
       </c>
-      <c r="E173" s="4"/>
+      <c r="E173" s="4">
+        <v>32</v>
+      </c>
       <c r="F173" s="4">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G173" s="4">
         <v>74</v>
       </c>
-      <c r="H173" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" s="4">
         <v>18003</v>
       </c>
@@ -6331,18 +6162,17 @@
       <c r="C174" s="4">
         <v>300</v>
       </c>
-      <c r="E174" s="4"/>
+      <c r="E174" s="4">
+        <v>36</v>
+      </c>
       <c r="F174" s="4">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G174" s="4">
-        <v>80</v>
-      </c>
-      <c r="H174" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" s="4">
         <v>22092</v>
       </c>
@@ -6352,18 +6182,17 @@
       <c r="C175" s="4">
         <v>200</v>
       </c>
-      <c r="E175" s="4"/>
+      <c r="E175" s="4">
+        <v>23</v>
+      </c>
       <c r="F175" s="4">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G175" s="4">
-        <v>39</v>
-      </c>
-      <c r="H175" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" s="4">
         <v>17038</v>
       </c>
@@ -6373,18 +6202,17 @@
       <c r="C176" s="4">
         <v>300</v>
       </c>
-      <c r="E176" s="4"/>
+      <c r="E176" s="4">
+        <v>59.5</v>
+      </c>
       <c r="F176" s="4">
-        <v>59.5</v>
+        <v>41.5</v>
       </c>
       <c r="G176" s="4">
-        <v>41.5</v>
-      </c>
-      <c r="H176" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" s="4">
         <v>21022</v>
       </c>
@@ -6394,21 +6222,20 @@
       <c r="C177" s="4">
         <v>10000</v>
       </c>
-      <c r="E177" s="4"/>
+      <c r="H177" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="I177" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J177" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="K177" s="4">
+      <c r="J177" s="4">
         <v>2012</v>
       </c>
-      <c r="L177" s="4" t="s">
+      <c r="K177" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A178" s="4">
         <v>21038</v>
       </c>
@@ -6418,18 +6245,17 @@
       <c r="C178" s="4">
         <v>400</v>
       </c>
-      <c r="E178" s="4"/>
+      <c r="H178" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="I178" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J178" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="K178" s="4">
+      <c r="J178" s="4">
         <v>2014</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179" s="4">
         <v>17028</v>
       </c>
@@ -6439,18 +6265,17 @@
       <c r="C179" s="4">
         <v>400</v>
       </c>
-      <c r="E179" s="4"/>
+      <c r="E179" s="4">
+        <v>178</v>
+      </c>
       <c r="F179" s="4">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="G179" s="4">
-        <v>91</v>
-      </c>
-      <c r="H179" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A180" s="4">
         <v>17031</v>
       </c>
@@ -6460,18 +6285,17 @@
       <c r="C180" s="4">
         <v>300</v>
       </c>
-      <c r="E180" s="4"/>
+      <c r="E180" s="4">
+        <v>137</v>
+      </c>
       <c r="F180" s="4">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="G180" s="4">
-        <v>50</v>
-      </c>
-      <c r="H180" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A181" s="4">
         <v>22032</v>
       </c>
@@ -6481,9 +6305,8 @@
       <c r="C181" s="4">
         <v>100</v>
       </c>
-      <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A182" s="4">
         <v>21031</v>
       </c>
@@ -6493,24 +6316,23 @@
       <c r="C182" s="4">
         <v>300</v>
       </c>
-      <c r="E182" s="4"/>
+      <c r="E182" s="4">
+        <v>10</v>
+      </c>
       <c r="F182" s="4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G182" s="4">
-        <v>28</v>
-      </c>
-      <c r="H182" s="4">
         <v>32</v>
       </c>
+      <c r="H182" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="I182" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J182" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A183" s="4">
         <v>18012</v>
       </c>
@@ -6520,18 +6342,17 @@
       <c r="C183" s="4">
         <v>100</v>
       </c>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4" t="s">
+      <c r="E183" s="4" t="s">
         <v>316</v>
       </c>
+      <c r="F183" s="4">
+        <v>60</v>
+      </c>
       <c r="G183" s="4">
-        <v>60</v>
-      </c>
-      <c r="H183" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A184" s="4">
         <v>17051</v>
       </c>
@@ -6541,18 +6362,17 @@
       <c r="C184" s="4">
         <v>200</v>
       </c>
-      <c r="E184" s="4"/>
+      <c r="E184" s="4">
+        <v>59.5</v>
+      </c>
       <c r="F184" s="4">
-        <v>59.5</v>
+        <v>48</v>
       </c>
       <c r="G184" s="4">
-        <v>48</v>
-      </c>
-      <c r="H184" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A185" s="4">
         <v>22029</v>
       </c>
@@ -6562,12 +6382,11 @@
       <c r="C185" s="4">
         <v>100</v>
       </c>
-      <c r="E185" s="4"/>
-      <c r="L185" s="4" t="s">
+      <c r="K185" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A186" s="4">
         <v>21064</v>
       </c>
@@ -6577,18 +6396,17 @@
       <c r="C186" s="4">
         <v>500</v>
       </c>
-      <c r="E186" s="4"/>
+      <c r="H186" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="I186" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J186" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="K186" s="4">
+      <c r="J186" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A187" s="4">
         <v>17022</v>
       </c>
@@ -6598,18 +6416,17 @@
       <c r="C187" s="4">
         <v>100</v>
       </c>
-      <c r="E187" s="4"/>
+      <c r="E187" s="4">
+        <v>63</v>
+      </c>
       <c r="F187" s="4">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G187" s="4">
-        <v>69</v>
-      </c>
-      <c r="H187" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A188" s="4">
         <v>22017</v>
       </c>
@@ -6619,9 +6436,8 @@
       <c r="C188" s="4">
         <v>50</v>
       </c>
-      <c r="E188" s="4"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A189" s="4">
         <v>16016</v>
       </c>
@@ -6631,30 +6447,29 @@
       <c r="C189" s="4">
         <v>4000</v>
       </c>
-      <c r="E189" s="4"/>
+      <c r="E189" s="4">
+        <v>115.7</v>
+      </c>
       <c r="F189" s="4">
-        <v>115.7</v>
+        <v>48</v>
       </c>
       <c r="G189" s="4">
-        <v>48</v>
-      </c>
-      <c r="H189" s="4">
         <v>62</v>
       </c>
+      <c r="H189" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="I189" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J189" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="K189" s="4">
+      <c r="J189" s="4">
         <v>2014</v>
       </c>
-      <c r="L189" s="4" t="s">
+      <c r="K189" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A190" s="4">
         <v>17035</v>
       </c>
@@ -6664,18 +6479,17 @@
       <c r="C190" s="4">
         <v>100</v>
       </c>
-      <c r="E190" s="4"/>
+      <c r="E190" s="4">
+        <v>90</v>
+      </c>
       <c r="F190" s="4">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G190" s="4">
-        <v>32</v>
-      </c>
-      <c r="H190" s="4">
         <v>29.5</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A191" s="4">
         <v>17008</v>
       </c>
@@ -6685,18 +6499,17 @@
       <c r="C191" s="4">
         <v>400</v>
       </c>
-      <c r="E191" s="4"/>
+      <c r="E191" s="4">
+        <v>180</v>
+      </c>
       <c r="F191" s="4">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G191" s="4">
-        <v>60</v>
-      </c>
-      <c r="H191" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A192" s="4">
         <v>18011</v>
       </c>
@@ -6706,21 +6519,20 @@
       <c r="C192" s="4">
         <v>500</v>
       </c>
-      <c r="E192" s="4"/>
+      <c r="E192" s="4">
+        <v>35</v>
+      </c>
       <c r="F192" s="4">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G192" s="4">
         <v>75</v>
       </c>
-      <c r="H192" s="4">
-        <v>75</v>
-      </c>
-      <c r="I192" s="4" t="s">
+      <c r="H192" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" s="4">
         <v>22077</v>
       </c>
@@ -6730,18 +6542,17 @@
       <c r="C193" s="4">
         <v>100</v>
       </c>
-      <c r="E193" s="4"/>
+      <c r="E193" s="4">
+        <v>22.5</v>
+      </c>
       <c r="F193" s="4">
-        <v>22.5</v>
+        <v>43</v>
       </c>
       <c r="G193" s="4">
-        <v>43</v>
-      </c>
-      <c r="H193" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" s="4">
         <v>16009</v>
       </c>
@@ -6751,27 +6562,26 @@
       <c r="C194" s="4">
         <v>4000</v>
       </c>
-      <c r="E194" s="4"/>
+      <c r="E194" s="4">
+        <v>115.7</v>
+      </c>
       <c r="F194" s="4">
-        <v>115.7</v>
+        <v>48</v>
       </c>
       <c r="G194" s="4">
-        <v>48</v>
-      </c>
-      <c r="H194" s="4">
         <v>62</v>
       </c>
+      <c r="H194" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="I194" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J194" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="K194" s="4">
+      <c r="J194" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A195" s="4">
         <v>22061</v>
       </c>
@@ -6781,9 +6591,8 @@
       <c r="C195" s="4">
         <v>100</v>
       </c>
-      <c r="E195" s="4"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A196" s="4">
         <v>18028</v>
       </c>
@@ -6793,18 +6602,17 @@
       <c r="C196" s="4">
         <v>200</v>
       </c>
-      <c r="E196" s="4"/>
+      <c r="E196" s="4">
+        <v>80</v>
+      </c>
       <c r="F196" s="4">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G196" s="4">
-        <v>45</v>
-      </c>
-      <c r="H196" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A197" s="4">
         <v>22044</v>
       </c>
@@ -6814,9 +6622,8 @@
       <c r="C197" s="4">
         <v>100</v>
       </c>
-      <c r="E197" s="4"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A198" s="4">
         <v>17030</v>
       </c>
@@ -6826,21 +6633,20 @@
       <c r="C198" s="4">
         <v>100</v>
       </c>
-      <c r="E198" s="4"/>
+      <c r="E198" s="4">
+        <v>74</v>
+      </c>
       <c r="F198" s="4">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G198" s="4">
-        <v>99</v>
-      </c>
-      <c r="H198" s="4">
         <v>201</v>
       </c>
-      <c r="L198" s="4" t="s">
+      <c r="K198" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A199" s="4">
         <v>22056</v>
       </c>
@@ -6850,9 +6656,8 @@
       <c r="C199" s="4">
         <v>50</v>
       </c>
-      <c r="E199" s="4"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A200" s="4">
         <v>22011</v>
       </c>
@@ -6862,12 +6667,11 @@
       <c r="C200" s="4">
         <v>100</v>
       </c>
-      <c r="E200" s="4"/>
-      <c r="L200" s="4" t="s">
+      <c r="K200" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A201" s="4">
         <v>18004</v>
       </c>
@@ -6877,18 +6681,17 @@
       <c r="C201" s="4">
         <v>1000</v>
       </c>
-      <c r="E201" s="4"/>
+      <c r="E201" s="4">
+        <v>76</v>
+      </c>
       <c r="F201" s="4">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="G201" s="4">
-        <v>110</v>
-      </c>
-      <c r="H201" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A202" s="4">
         <v>16007</v>
       </c>
@@ -6898,27 +6701,26 @@
       <c r="C202" s="4">
         <v>4000</v>
       </c>
-      <c r="E202" s="4"/>
+      <c r="E202" s="4">
+        <v>92</v>
+      </c>
       <c r="F202" s="4">
-        <v>92</v>
+        <v>56.3</v>
       </c>
       <c r="G202" s="4">
-        <v>56.3</v>
-      </c>
-      <c r="H202" s="4">
         <v>53.5</v>
       </c>
+      <c r="H202" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="I202" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J202" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="K202" s="4">
+      <c r="J202" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A203" s="4">
         <v>22078</v>
       </c>
@@ -6928,18 +6730,17 @@
       <c r="C203" s="4">
         <v>100</v>
       </c>
-      <c r="E203" s="4"/>
+      <c r="E203" s="4">
+        <v>22.5</v>
+      </c>
       <c r="F203" s="4">
-        <v>22.5</v>
+        <v>43</v>
       </c>
       <c r="G203" s="4">
-        <v>43</v>
-      </c>
-      <c r="H203" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A204" s="4">
         <v>22027</v>
       </c>
@@ -6949,12 +6750,11 @@
       <c r="C204" s="4">
         <v>200</v>
       </c>
-      <c r="E204" s="4"/>
-      <c r="L204" s="4" t="s">
+      <c r="K204" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A205" s="4">
         <v>21010</v>
       </c>
@@ -6964,9 +6764,8 @@
       <c r="C205" s="4">
         <v>400</v>
       </c>
-      <c r="E205" s="4"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A206" s="4">
         <v>17026</v>
       </c>
@@ -6976,18 +6775,17 @@
       <c r="C206" s="4">
         <v>200</v>
       </c>
-      <c r="E206" s="4"/>
+      <c r="E206" s="4">
+        <v>155</v>
+      </c>
       <c r="F206" s="4">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="G206" s="4">
-        <v>59</v>
-      </c>
-      <c r="H206" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A207" s="4">
         <v>22003</v>
       </c>
@@ -6997,9 +6795,8 @@
       <c r="C207" s="4">
         <v>100</v>
       </c>
-      <c r="E207" s="4"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A208" s="4">
         <v>16001</v>
       </c>
@@ -7009,27 +6806,26 @@
       <c r="C208" s="4">
         <v>3000</v>
       </c>
-      <c r="E208" s="4"/>
+      <c r="E208" s="4">
+        <v>112.5</v>
+      </c>
       <c r="F208" s="4">
-        <v>112.5</v>
+        <v>48</v>
       </c>
       <c r="G208" s="4">
-        <v>48</v>
-      </c>
-      <c r="H208" s="4">
         <v>59</v>
       </c>
+      <c r="H208" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I208" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J208" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="K208" s="4">
+      <c r="J208" s="4">
         <v>2009</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A209" s="4">
         <v>21030</v>
       </c>
@@ -7039,27 +6835,26 @@
       <c r="C209" s="4">
         <v>1000</v>
       </c>
-      <c r="E209" s="4"/>
+      <c r="E209" s="4">
+        <v>23</v>
+      </c>
       <c r="F209" s="4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G209" s="4">
-        <v>56</v>
-      </c>
-      <c r="H209" s="4">
         <v>42</v>
       </c>
+      <c r="H209" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="I209" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="J209" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="L209" s="4" t="s">
+      <c r="K209" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210" s="4">
         <v>17044</v>
       </c>
@@ -7069,18 +6864,17 @@
       <c r="C210" s="4">
         <v>200</v>
       </c>
-      <c r="E210" s="4"/>
+      <c r="E210" s="4">
+        <v>87.5</v>
+      </c>
       <c r="F210" s="4">
-        <v>87.5</v>
+        <v>47.5</v>
       </c>
       <c r="G210" s="4">
-        <v>47.5</v>
-      </c>
-      <c r="H210" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A211" s="4">
         <v>22080</v>
       </c>
@@ -7090,18 +6884,17 @@
       <c r="C211" s="4">
         <v>300</v>
       </c>
-      <c r="E211" s="4"/>
+      <c r="E211" s="4">
+        <v>90</v>
+      </c>
       <c r="F211" s="4">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="G211" s="4">
-        <v>33</v>
-      </c>
-      <c r="H211" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A212" s="4">
         <v>12008</v>
       </c>
@@ -7111,18 +6904,17 @@
       <c r="C212" s="4">
         <v>2000</v>
       </c>
-      <c r="E212" s="4"/>
+      <c r="E212" s="4">
+        <v>75</v>
+      </c>
       <c r="F212" s="4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G212" s="4">
-        <v>100</v>
-      </c>
-      <c r="H212" s="4">
         <v>230</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A213" s="4">
         <v>16010</v>
       </c>
@@ -7132,27 +6924,26 @@
       <c r="C213" s="4">
         <v>2000</v>
       </c>
-      <c r="E213" s="4"/>
+      <c r="E213" s="4">
+        <v>85.2</v>
+      </c>
       <c r="F213" s="4">
-        <v>85.2</v>
+        <v>47.5</v>
       </c>
       <c r="G213" s="4">
-        <v>47.5</v>
-      </c>
-      <c r="H213" s="4">
         <v>49.5</v>
       </c>
+      <c r="H213" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="I213" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J213" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="K213" s="4">
+      <c r="J213" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A214" s="4">
         <v>17020</v>
       </c>
@@ -7162,18 +6953,17 @@
       <c r="C214" s="4">
         <v>500</v>
       </c>
-      <c r="E214" s="4"/>
+      <c r="E214" s="4">
+        <v>173.5</v>
+      </c>
       <c r="F214" s="4">
-        <v>173.5</v>
+        <v>60</v>
       </c>
       <c r="G214" s="4">
-        <v>60</v>
-      </c>
-      <c r="H214" s="4">
         <v>55.5</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A215" s="4">
         <v>22031</v>
       </c>
@@ -7183,9 +6973,8 @@
       <c r="C215" s="4">
         <v>100</v>
       </c>
-      <c r="E215" s="4"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A216" s="4">
         <v>17006</v>
       </c>
@@ -7195,18 +6984,17 @@
       <c r="C216" s="4">
         <v>200</v>
       </c>
-      <c r="E216" s="4"/>
+      <c r="E216" s="4">
+        <v>126</v>
+      </c>
       <c r="F216" s="4">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="G216" s="4">
-        <v>64</v>
-      </c>
-      <c r="H216" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A217" s="4">
         <v>12015</v>
       </c>
@@ -7216,9 +7004,8 @@
       <c r="C217" s="4">
         <v>100</v>
       </c>
-      <c r="E217" s="4"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A218" s="4">
         <v>17054</v>
       </c>
@@ -7228,18 +7015,17 @@
       <c r="C218" s="4">
         <v>400</v>
       </c>
-      <c r="E218" s="4"/>
+      <c r="E218" s="4">
+        <v>88</v>
+      </c>
       <c r="F218" s="4">
-        <v>88</v>
+        <v>60.5</v>
       </c>
       <c r="G218" s="4">
-        <v>60.5</v>
-      </c>
-      <c r="H218" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A219" s="4">
         <v>17029</v>
       </c>
@@ -7249,21 +7035,20 @@
       <c r="C219" s="4">
         <v>100</v>
       </c>
-      <c r="E219" s="4"/>
+      <c r="E219" s="4">
+        <v>74</v>
+      </c>
       <c r="F219" s="4">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G219" s="4">
-        <v>99</v>
-      </c>
-      <c r="H219" s="4">
         <v>201</v>
       </c>
-      <c r="L219" s="4" t="s">
+      <c r="K219" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A220" s="4">
         <v>18035</v>
       </c>
@@ -7273,9 +7058,8 @@
       <c r="C220" s="4">
         <v>200</v>
       </c>
-      <c r="E220" s="4"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A221" s="4">
         <v>17024</v>
       </c>
@@ -7285,18 +7069,17 @@
       <c r="C221" s="4">
         <v>500</v>
       </c>
-      <c r="E221" s="4"/>
+      <c r="E221" s="4">
+        <v>180</v>
+      </c>
       <c r="F221" s="4">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="G221" s="4">
-        <v>75</v>
-      </c>
-      <c r="H221" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A222" s="4">
         <v>21063</v>
       </c>
@@ -7306,18 +7089,17 @@
       <c r="C222" s="4">
         <v>3000</v>
       </c>
-      <c r="E222" s="4"/>
+      <c r="H222" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="I222" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="J222" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="L222" s="4" t="s">
+      <c r="K222" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A223" s="4">
         <v>22006</v>
       </c>
@@ -7327,9 +7109,8 @@
       <c r="C223" s="4">
         <v>50</v>
       </c>
-      <c r="E223" s="4"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A224" s="4">
         <v>17046</v>
       </c>
@@ -7339,18 +7120,17 @@
       <c r="C224" s="4">
         <v>200</v>
       </c>
-      <c r="E224" s="4"/>
+      <c r="E224" s="4">
+        <v>87.5</v>
+      </c>
       <c r="F224" s="4">
-        <v>87.5</v>
+        <v>47.5</v>
       </c>
       <c r="G224" s="4">
-        <v>47.5</v>
-      </c>
-      <c r="H224" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A225" s="4">
         <v>22050</v>
       </c>
@@ -7360,9 +7140,8 @@
       <c r="C225" s="4">
         <v>100</v>
       </c>
-      <c r="E225" s="4"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A226" s="4">
         <v>12005</v>
       </c>
@@ -7372,18 +7151,17 @@
       <c r="C226" s="4">
         <v>500</v>
       </c>
-      <c r="E226" s="4"/>
+      <c r="E226" s="4">
+        <v>41</v>
+      </c>
       <c r="F226" s="4">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="G226" s="4">
-        <v>90</v>
-      </c>
-      <c r="H226" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A227" s="4">
         <v>21039</v>
       </c>
@@ -7393,30 +7171,29 @@
       <c r="C227" s="4">
         <v>1500</v>
       </c>
-      <c r="E227" s="4"/>
+      <c r="E227" s="4">
+        <v>26.2</v>
+      </c>
       <c r="F227" s="4">
-        <v>26.2</v>
+        <v>45.2</v>
       </c>
       <c r="G227" s="4">
-        <v>45.2</v>
-      </c>
-      <c r="H227" s="4">
         <v>33</v>
       </c>
+      <c r="H227" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="I227" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="J227" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="K227" s="4">
+      <c r="J227" s="4">
         <v>2014</v>
       </c>
-      <c r="L227" s="4" t="s">
+      <c r="K227" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A228" s="4">
         <v>21005</v>
       </c>
@@ -7426,21 +7203,20 @@
       <c r="C228" s="4">
         <v>500</v>
       </c>
-      <c r="E228" s="4"/>
+      <c r="H228" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="I228" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J228" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="K228" s="4">
+      <c r="J228" s="4">
         <v>2015</v>
       </c>
-      <c r="L228" s="4" t="s">
+      <c r="K228" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A229" s="4">
         <v>22045</v>
       </c>
@@ -7450,9 +7226,8 @@
       <c r="C229" s="4">
         <v>100</v>
       </c>
-      <c r="E229" s="4"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A230" s="4">
         <v>21059</v>
       </c>
@@ -7462,15 +7237,14 @@
       <c r="C230" s="4">
         <v>100</v>
       </c>
-      <c r="E230" s="4"/>
+      <c r="H230" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="I230" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="J230" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A231" s="4">
         <v>18015</v>
       </c>
@@ -7480,9 +7254,8 @@
       <c r="C231" s="4">
         <v>200</v>
       </c>
-      <c r="E231" s="4"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A232" s="4">
         <v>17053</v>
       </c>
@@ -7492,18 +7265,17 @@
       <c r="C232" s="4">
         <v>300</v>
       </c>
-      <c r="E232" s="4"/>
+      <c r="E232" s="4">
+        <v>88.5</v>
+      </c>
       <c r="F232" s="4">
-        <v>88.5</v>
+        <v>15</v>
       </c>
       <c r="G232" s="4">
-        <v>15</v>
-      </c>
-      <c r="H232" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A233" s="4">
         <v>21028</v>
       </c>
@@ -7513,12 +7285,11 @@
       <c r="C233" s="4">
         <v>600</v>
       </c>
-      <c r="E233" s="4"/>
-      <c r="I233" s="4" t="s">
+      <c r="H233" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A234" s="4">
         <v>21034</v>
       </c>
@@ -7528,30 +7299,29 @@
       <c r="C234" s="4">
         <v>800</v>
       </c>
-      <c r="E234" s="4"/>
+      <c r="E234" s="4">
+        <v>101</v>
+      </c>
       <c r="F234" s="4">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="G234" s="4">
-        <v>23</v>
-      </c>
-      <c r="H234" s="4">
         <v>20</v>
       </c>
+      <c r="H234" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="I234" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J234" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="K234" s="4">
+      <c r="J234" s="4">
         <v>2010</v>
       </c>
-      <c r="L234" s="4" t="s">
+      <c r="K234" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A235" s="4">
         <v>21062</v>
       </c>
@@ -7561,18 +7331,17 @@
       <c r="C235" s="4">
         <v>2000</v>
       </c>
-      <c r="E235" s="4"/>
+      <c r="H235" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="I235" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="J235" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="L235" s="4" t="s">
+      <c r="K235" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A236" s="4">
         <v>17018</v>
       </c>
@@ -7582,27 +7351,26 @@
       <c r="C236" s="4">
         <v>4000</v>
       </c>
-      <c r="E236" s="4"/>
+      <c r="E236" s="4">
+        <v>75</v>
+      </c>
       <c r="F236" s="4">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G236" s="4">
-        <v>97</v>
-      </c>
-      <c r="H236" s="4">
         <v>198</v>
       </c>
+      <c r="H236" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="I236" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="J236" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="L236" s="4" t="s">
+      <c r="K236" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A237" s="4">
         <v>21003</v>
       </c>
@@ -7612,18 +7380,17 @@
       <c r="C237" s="4">
         <v>700</v>
       </c>
-      <c r="E237" s="4"/>
+      <c r="H237" s="4" t="s">
+        <v>402</v>
+      </c>
       <c r="I237" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J237" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="L237" s="4" t="s">
+      <c r="K237" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A238" s="4">
         <v>18030</v>
       </c>
@@ -7633,18 +7400,17 @@
       <c r="C238" s="4">
         <v>500</v>
       </c>
-      <c r="E238" s="4"/>
+      <c r="E238" s="4">
+        <v>90</v>
+      </c>
       <c r="F238" s="4">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G238" s="4">
-        <v>63</v>
-      </c>
-      <c r="H238" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A239" s="4">
         <v>17010</v>
       </c>
@@ -7654,18 +7420,17 @@
       <c r="C239" s="4">
         <v>200</v>
       </c>
-      <c r="E239" s="4"/>
+      <c r="E239" s="4">
+        <v>110</v>
+      </c>
       <c r="F239" s="4">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="G239" s="4">
-        <v>64</v>
-      </c>
-      <c r="H239" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A240" s="4">
         <v>22094</v>
       </c>
@@ -7675,12 +7440,11 @@
       <c r="C240" s="4">
         <v>300</v>
       </c>
-      <c r="E240" s="4"/>
-      <c r="L240" s="4" t="s">
+      <c r="K240" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241" s="4">
         <v>21044</v>
       </c>
@@ -7690,18 +7454,17 @@
       <c r="C241" s="4">
         <v>500</v>
       </c>
-      <c r="E241" s="4"/>
+      <c r="H241" s="4" t="s">
+        <v>409</v>
+      </c>
       <c r="I241" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="J241" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="K241" s="4">
+      <c r="J241" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242" s="4">
         <v>22057</v>
       </c>
@@ -7711,9 +7474,8 @@
       <c r="C242" s="4">
         <v>100</v>
       </c>
-      <c r="E242" s="4"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243" s="4">
         <v>18019</v>
       </c>
@@ -7723,18 +7485,17 @@
       <c r="C243" s="4">
         <v>500</v>
       </c>
-      <c r="E243" s="4"/>
-      <c r="F243" s="4">
+      <c r="E243" s="4">
         <v>68</v>
       </c>
-      <c r="G243" s="4" t="s">
+      <c r="F243" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="H243" s="4">
+      <c r="G243" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244" s="4">
         <v>17021</v>
       </c>
@@ -7744,18 +7505,17 @@
       <c r="C244" s="4">
         <v>200</v>
       </c>
-      <c r="E244" s="4"/>
+      <c r="E244" s="4">
+        <v>57</v>
+      </c>
       <c r="F244" s="4">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G244" s="4">
-        <v>60</v>
-      </c>
-      <c r="H244" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245" s="4">
         <v>16002</v>
       </c>
@@ -7765,27 +7525,26 @@
       <c r="C245" s="4">
         <v>3000</v>
       </c>
-      <c r="E245" s="4"/>
+      <c r="E245" s="4">
+        <v>112.5</v>
+      </c>
       <c r="F245" s="4">
-        <v>112.5</v>
+        <v>48</v>
       </c>
       <c r="G245" s="4">
-        <v>48</v>
-      </c>
-      <c r="H245" s="4">
         <v>59</v>
       </c>
+      <c r="H245" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I245" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J245" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="K245" s="4">
+      <c r="J245" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246" s="4">
         <v>22076</v>
       </c>
@@ -7795,12 +7554,11 @@
       <c r="C246" s="4">
         <v>50</v>
       </c>
-      <c r="E246" s="4"/>
-      <c r="L246" s="4" t="s">
+      <c r="K246" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247" s="4">
         <v>17027</v>
       </c>
@@ -7810,18 +7568,17 @@
       <c r="C247" s="4">
         <v>300</v>
       </c>
-      <c r="E247" s="4"/>
+      <c r="E247" s="4">
+        <v>124</v>
+      </c>
       <c r="F247" s="4">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="G247" s="4">
-        <v>65</v>
-      </c>
-      <c r="H247" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248" s="4">
         <v>22063</v>
       </c>
@@ -7831,15 +7588,14 @@
       <c r="C248" s="4">
         <v>50</v>
       </c>
-      <c r="E248" s="4"/>
+      <c r="F248" s="4">
+        <v>77</v>
+      </c>
       <c r="G248" s="4">
-        <v>77</v>
-      </c>
-      <c r="H248" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249" s="4">
         <v>18007</v>
       </c>
@@ -7849,18 +7605,17 @@
       <c r="C249" s="4">
         <v>300</v>
       </c>
-      <c r="E249" s="4"/>
+      <c r="E249" s="4">
+        <v>33</v>
+      </c>
       <c r="F249" s="4">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G249" s="4">
-        <v>90</v>
-      </c>
-      <c r="H249" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250" s="4">
         <v>18005</v>
       </c>
@@ -7870,18 +7625,17 @@
       <c r="C250" s="4">
         <v>300</v>
       </c>
-      <c r="E250" s="4"/>
+      <c r="E250" s="4">
+        <v>38</v>
+      </c>
       <c r="F250" s="4">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="G250" s="4">
-        <v>90</v>
-      </c>
-      <c r="H250" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251" s="4">
         <v>22090</v>
       </c>
@@ -7891,18 +7645,17 @@
       <c r="C251" s="4">
         <v>200</v>
       </c>
-      <c r="E251" s="4"/>
+      <c r="E251" s="4">
+        <v>23</v>
+      </c>
       <c r="F251" s="4">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G251" s="4">
-        <v>39</v>
-      </c>
-      <c r="H251" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252" s="4">
         <v>17023</v>
       </c>
@@ -7912,18 +7665,17 @@
       <c r="C252" s="4">
         <v>100</v>
       </c>
-      <c r="E252" s="4"/>
+      <c r="E252" s="4">
+        <v>89</v>
+      </c>
       <c r="F252" s="4">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G252" s="4">
-        <v>59</v>
-      </c>
-      <c r="H252" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253" s="4">
         <v>22089</v>
       </c>
@@ -7933,18 +7685,17 @@
       <c r="C253" s="4">
         <v>200</v>
       </c>
-      <c r="E253" s="4"/>
+      <c r="E253" s="4">
+        <v>23</v>
+      </c>
       <c r="F253" s="4">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G253" s="4">
-        <v>39</v>
-      </c>
-      <c r="H253" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254" s="4">
         <v>21015</v>
       </c>
@@ -7954,15 +7705,14 @@
       <c r="C254" s="4">
         <v>500</v>
       </c>
-      <c r="E254" s="4"/>
-      <c r="I254" s="4" t="s">
+      <c r="H254" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="K254" s="4">
+      <c r="J254" s="4">
         <v>2012</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255" s="4">
         <v>17037</v>
       </c>
@@ -7972,18 +7722,17 @@
       <c r="C255" s="4">
         <v>300</v>
       </c>
-      <c r="E255" s="4"/>
+      <c r="E255" s="4">
+        <v>60</v>
+      </c>
       <c r="F255" s="4">
-        <v>60</v>
+        <v>47.5</v>
       </c>
       <c r="G255" s="4">
-        <v>47.5</v>
-      </c>
-      <c r="H255" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256" s="4">
         <v>17055</v>
       </c>
@@ -7993,18 +7742,17 @@
       <c r="C256" s="4">
         <v>400</v>
       </c>
-      <c r="E256" s="4"/>
+      <c r="E256" s="4">
+        <v>89</v>
+      </c>
       <c r="F256" s="4">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G256" s="4">
-        <v>60</v>
-      </c>
-      <c r="H256" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A257" s="4">
         <v>21050</v>
       </c>
@@ -8014,18 +7762,17 @@
       <c r="C257" s="4">
         <v>800</v>
       </c>
-      <c r="E257" s="4"/>
+      <c r="H257" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="I257" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J257" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="K257" s="4">
+      <c r="J257" s="4">
         <v>2013</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A258" s="4">
         <v>21055</v>
       </c>
@@ -8035,18 +7782,17 @@
       <c r="C258" s="4">
         <v>600</v>
       </c>
-      <c r="E258" s="4"/>
+      <c r="H258" s="4" t="s">
+        <v>432</v>
+      </c>
       <c r="I258" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="J258" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L258" s="4" t="s">
+      <c r="K258" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A259" s="4">
         <v>21002</v>
       </c>
@@ -8056,9 +7802,8 @@
       <c r="C259" s="4">
         <v>800</v>
       </c>
-      <c r="E259" s="4"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A260" s="4">
         <v>22030</v>
       </c>
@@ -8068,12 +7813,11 @@
       <c r="C260" s="4">
         <v>100</v>
       </c>
-      <c r="E260" s="4"/>
-      <c r="L260" s="4" t="s">
+      <c r="K260" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A261" s="4">
         <v>22025</v>
       </c>
@@ -8083,12 +7827,11 @@
       <c r="C261" s="4">
         <v>200</v>
       </c>
-      <c r="E261" s="4"/>
-      <c r="L261" s="4" t="s">
+      <c r="K261" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A262" s="4">
         <v>22043</v>
       </c>
@@ -8098,9 +7841,8 @@
       <c r="C262" s="4">
         <v>100</v>
       </c>
-      <c r="E262" s="4"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A263" s="4">
         <v>21025</v>
       </c>
@@ -8110,18 +7852,17 @@
       <c r="C263" s="4">
         <v>300</v>
       </c>
-      <c r="E263" s="4"/>
+      <c r="H263" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="I263" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J263" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="K263" s="4">
+      <c r="J263" s="4">
         <v>2008</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A264" s="4">
         <v>22009</v>
       </c>
@@ -8131,9 +7872,8 @@
       <c r="C264" s="4">
         <v>100</v>
       </c>
-      <c r="E264" s="4"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A265" s="4">
         <v>17017</v>
       </c>
@@ -8143,18 +7883,17 @@
       <c r="C265" s="4">
         <v>100</v>
       </c>
-      <c r="E265" s="4"/>
+      <c r="E265" s="4">
+        <v>60</v>
+      </c>
       <c r="F265" s="4">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G265" s="4">
-        <v>45</v>
-      </c>
-      <c r="H265" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A266" s="4">
         <v>17052</v>
       </c>
@@ -8164,18 +7903,17 @@
       <c r="C266" s="4">
         <v>200</v>
       </c>
-      <c r="E266" s="4"/>
+      <c r="E266" s="4">
+        <v>60</v>
+      </c>
       <c r="F266" s="4">
-        <v>60</v>
+        <v>60.5</v>
       </c>
       <c r="G266" s="4">
-        <v>60.5</v>
-      </c>
-      <c r="H266" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A267" s="4">
         <v>21018</v>
       </c>
@@ -8185,18 +7923,17 @@
       <c r="C267" s="4">
         <v>100</v>
       </c>
-      <c r="E267" s="4"/>
+      <c r="H267" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="I267" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J267" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="K267" s="4">
+      <c r="J267" s="4">
         <v>1994</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A268" s="4">
         <v>21004</v>
       </c>
@@ -8206,21 +7943,20 @@
       <c r="C268" s="4">
         <v>500</v>
       </c>
-      <c r="E268" s="4"/>
+      <c r="H268" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="I268" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="J268" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="K268" s="4">
+      <c r="J268" s="4">
         <v>2015</v>
       </c>
-      <c r="L268" s="4" t="s">
+      <c r="K268" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A269" s="4">
         <v>21006</v>
       </c>
@@ -8230,9 +7966,8 @@
       <c r="C269" s="4">
         <v>150</v>
       </c>
-      <c r="E269" s="4"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A270" s="4">
         <v>17049</v>
       </c>
@@ -8242,18 +7977,17 @@
       <c r="C270" s="4">
         <v>100</v>
       </c>
-      <c r="E270" s="4"/>
+      <c r="E270" s="4">
+        <v>95.5</v>
+      </c>
       <c r="F270" s="4">
-        <v>95.5</v>
+        <v>54</v>
       </c>
       <c r="G270" s="4">
-        <v>54</v>
-      </c>
-      <c r="H270" s="4">
         <v>23.5</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A271" s="4">
         <v>18033</v>
       </c>
@@ -8263,21 +7997,20 @@
       <c r="C271" s="4">
         <v>800</v>
       </c>
-      <c r="E271" s="4"/>
+      <c r="E271" s="4">
+        <v>36</v>
+      </c>
       <c r="F271" s="4">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="G271" s="4">
         <v>75</v>
       </c>
-      <c r="H271" s="4">
-        <v>75</v>
-      </c>
-      <c r="K271" s="4">
+      <c r="J271" s="4">
         <v>2008</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A272" s="4">
         <v>22022</v>
       </c>
@@ -8287,12 +8020,11 @@
       <c r="C272" s="4">
         <v>300</v>
       </c>
-      <c r="E272" s="4"/>
-      <c r="L272" s="4" t="s">
+      <c r="K272" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A273" s="4">
         <v>22069</v>
       </c>
@@ -8302,9 +8034,8 @@
       <c r="C273" s="4">
         <v>50</v>
       </c>
-      <c r="E273" s="4"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A274" s="4">
         <v>18032</v>
       </c>
@@ -8314,18 +8045,17 @@
       <c r="C274" s="4">
         <v>100</v>
       </c>
-      <c r="E274" s="4"/>
+      <c r="E274" s="4">
+        <v>97</v>
+      </c>
       <c r="F274" s="4">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="G274" s="4">
-        <v>60</v>
-      </c>
-      <c r="H274" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A275" s="4">
         <v>21032</v>
       </c>
@@ -8335,27 +8065,26 @@
       <c r="C275" s="4">
         <v>300</v>
       </c>
-      <c r="E275" s="4"/>
+      <c r="E275" s="4">
+        <v>38.5</v>
+      </c>
       <c r="F275" s="4">
-        <v>38.5</v>
+        <v>37.9</v>
       </c>
       <c r="G275" s="4">
-        <v>37.9</v>
-      </c>
-      <c r="H275" s="4">
         <v>22</v>
       </c>
+      <c r="H275" s="4" t="s">
+        <v>456</v>
+      </c>
       <c r="I275" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="J275" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="K275" s="4">
+      <c r="J275" s="4">
         <v>2004</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A276" s="4">
         <v>17041</v>
       </c>
@@ -8365,18 +8094,17 @@
       <c r="C276" s="4">
         <v>200</v>
       </c>
-      <c r="E276" s="4"/>
+      <c r="E276" s="4">
+        <v>89.5</v>
+      </c>
       <c r="F276" s="4">
-        <v>89.5</v>
+        <v>59.5</v>
       </c>
       <c r="G276" s="4">
-        <v>59.5</v>
-      </c>
-      <c r="H276" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A277" s="4">
         <v>18025</v>
       </c>
@@ -8386,18 +8114,17 @@
       <c r="C277" s="4">
         <v>100</v>
       </c>
-      <c r="E277" s="4"/>
+      <c r="E277" s="4">
+        <v>62</v>
+      </c>
       <c r="F277" s="4">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G277" s="4">
-        <v>52</v>
-      </c>
-      <c r="H277" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A278" s="4">
         <v>21057</v>
       </c>
@@ -8407,18 +8134,17 @@
       <c r="C278" s="4">
         <v>300</v>
       </c>
-      <c r="E278" s="4"/>
+      <c r="H278" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="I278" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J278" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="K278" s="4">
+      <c r="J278" s="4">
         <v>2007</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A279" s="4">
         <v>22023</v>
       </c>
@@ -8428,12 +8154,11 @@
       <c r="C279" s="4">
         <v>1000</v>
       </c>
-      <c r="E279" s="4"/>
-      <c r="L279" s="4" t="s">
+      <c r="K279" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A280" s="4">
         <v>16020</v>
       </c>
@@ -8443,30 +8168,29 @@
       <c r="C280" s="4">
         <v>5000</v>
       </c>
-      <c r="E280" s="4"/>
+      <c r="E280" s="4">
+        <v>94</v>
+      </c>
       <c r="F280" s="4">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="G280" s="4">
-        <v>53</v>
-      </c>
-      <c r="H280" s="4">
         <v>52</v>
       </c>
+      <c r="H280" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="I280" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J280" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="K280" s="4">
+      <c r="J280" s="4">
         <v>2015</v>
       </c>
-      <c r="L280" s="4" t="s">
+      <c r="K280" s="4" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A281" s="4">
         <v>17043</v>
       </c>
@@ -8476,18 +8200,17 @@
       <c r="C281" s="4">
         <v>100</v>
       </c>
-      <c r="E281" s="4"/>
+      <c r="E281" s="4">
+        <v>89</v>
+      </c>
       <c r="F281" s="4">
-        <v>89</v>
+        <v>47.5</v>
       </c>
       <c r="G281" s="4">
-        <v>47.5</v>
-      </c>
-      <c r="H281" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A282" s="4">
         <v>22071</v>
       </c>
@@ -8497,18 +8220,17 @@
       <c r="C282" s="4">
         <v>200</v>
       </c>
-      <c r="E282" s="4"/>
+      <c r="E282" s="4">
+        <v>28</v>
+      </c>
       <c r="F282" s="4">
-        <v>28</v>
+        <v>37.6</v>
       </c>
       <c r="G282" s="4">
-        <v>37.6</v>
-      </c>
-      <c r="H282" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A283" s="4">
         <v>18008</v>
       </c>
@@ -8518,18 +8240,17 @@
       <c r="C283" s="4">
         <v>100</v>
       </c>
-      <c r="E283" s="4"/>
+      <c r="E283" s="4">
+        <v>28</v>
+      </c>
       <c r="F283" s="4">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G283" s="4">
-        <v>60</v>
-      </c>
-      <c r="H283" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A284" s="4">
         <v>21011</v>
       </c>
@@ -8539,18 +8260,17 @@
       <c r="C284" s="4">
         <v>300</v>
       </c>
-      <c r="E284" s="4"/>
+      <c r="H284" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="I284" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J284" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="L284" s="4" t="s">
+      <c r="K284" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A285" s="4">
         <v>22088</v>
       </c>
@@ -8560,18 +8280,17 @@
       <c r="C285" s="4">
         <v>200</v>
       </c>
-      <c r="E285" s="4"/>
+      <c r="E285" s="4">
+        <v>23</v>
+      </c>
       <c r="F285" s="4">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G285" s="4">
-        <v>39</v>
-      </c>
-      <c r="H285" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A286" s="4">
         <v>21053</v>
       </c>
@@ -8581,18 +8300,17 @@
       <c r="C286" s="4">
         <v>1000</v>
       </c>
-      <c r="E286" s="4"/>
+      <c r="H286" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="I286" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J286" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="K286" s="4">
+      <c r="J286" s="4">
         <v>2009</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A287" s="4">
         <v>22070</v>
       </c>
@@ -8602,18 +8320,17 @@
       <c r="C287" s="4">
         <v>50</v>
       </c>
-      <c r="E287" s="4"/>
+      <c r="E287" s="4">
+        <v>23</v>
+      </c>
       <c r="F287" s="4">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G287" s="4">
-        <v>39</v>
-      </c>
-      <c r="H287" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A288" s="4">
         <v>12006</v>
       </c>
@@ -8623,21 +8340,20 @@
       <c r="C288" s="4">
         <v>1500</v>
       </c>
-      <c r="E288" s="4"/>
+      <c r="E288" s="4">
+        <v>65</v>
+      </c>
       <c r="F288" s="4">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="G288" s="4">
-        <v>99</v>
-      </c>
-      <c r="H288" s="4">
         <v>220</v>
       </c>
-      <c r="L288" s="4" t="s">
+      <c r="K288" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" s="4">
         <v>22014</v>
       </c>
@@ -8647,7 +8363,6 @@
       <c r="C289" s="4">
         <v>800</v>
       </c>
-      <c r="E289" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
